--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,133 +79,160 @@
     <t>drop</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -563,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +601,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6764705882352942</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6206896551724138</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,37 +859,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8642297650130548</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4594594594594595</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3862433862433862</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3527131782945737</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.288135593220339</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.25</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2214765100671141</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7625</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.06746031746031746</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,37 +1509,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005154639175257732</v>
+        <v>0.006554307116104869</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="F20">
-        <v>0.84</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3088</v>
+        <v>2122</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,37 +1559,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004394224733207784</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>0.48</v>
+        <v>0.9</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3172</v>
+        <v>3087</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1609,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1635,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6088235294117647</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1626,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,13 +1661,13 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1652,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1687,13 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1678,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1713,13 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5732217573221757</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L26">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,13 +1739,13 @@
         <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.66</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,13 +1765,13 @@
         <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1764,13 +1791,13 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5627118644067797</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1790,13 +1817,13 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>0.55</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1808,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1816,13 +1843,13 @@
         <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1842,13 +1869,13 @@
         <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1868,13 +1895,13 @@
         <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1894,13 +1921,13 @@
         <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4943820224719101</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1920,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="K35">
-        <v>0.3555555555555556</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1946,13 +1973,13 @@
         <v>61</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1964,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1972,13 +1999,13 @@
         <v>62</v>
       </c>
       <c r="K37">
-        <v>0.3076923076923077</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1990,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1998,13 +2025,13 @@
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.2602739726027397</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,33 +2043,241 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.004706620646375902</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>29</v>
       </c>
-      <c r="N39">
-        <v>0.52</v>
-      </c>
-      <c r="O39">
-        <v>0.48</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3172</v>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46">
+        <v>0.21875</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47">
+        <v>0.00407395800689439</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>0.57</v>
+      </c>
+      <c r="O47">
+        <v>0.43</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
